--- a/L0 Analytics with Excel/DS2_RegressionSalesMarketing_Template.xlsx
+++ b/L0 Analytics with Excel/DS2_RegressionSalesMarketing_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_Excel_Analytics/L0 Analytics with Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="53" documentId="8_{EAC0F827-7D87-4617-9C7D-9CE617CEC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6DAB6D-6E08-45D1-8807-9E941AE951C9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="2" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1299,9 +1299,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,18 +1308,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1368,7 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1384,7 +1380,7 @@
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,13 +1407,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F67166F-9D4B-4F09-BAB8-98F818BE0CB1}" name="Table2" displayName="Table2" ref="A5:E17" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F67166F-9D4B-4F09-BAB8-98F818BE0CB1}" name="Table2" displayName="Table2" ref="A5:E17" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{66B4D2F4-2C66-459B-A090-993CC7B4281B}" name="sales acutal"/>
-    <tableColumn id="2" xr3:uid="{C96DE788-E678-432D-B814-83B43A4BF3C1}" name="Sales predicted" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5A2EAEB0-1B43-4D09-9F14-5EF97555921E}" name="Error" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{86DB4766-484A-4161-AB32-28FB28DDE16B}" name="Abs Error" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{248886C8-DAE6-435E-8124-664B4C3C0974}" name="Sq Error" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C96DE788-E678-432D-B814-83B43A4BF3C1}" name="Sales predicted" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5A2EAEB0-1B43-4D09-9F14-5EF97555921E}" name="Error" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{86DB4766-484A-4161-AB32-28FB28DDE16B}" name="Abs Error" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{248886C8-DAE6-435E-8124-664B4C3C0974}" name="Sq Error" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1735,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1749,13 +1745,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="3:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1786,37 +1782,37 @@
     </row>
     <row r="6" spans="3:7" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1939,7 +1935,7 @@
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1949,7 @@
       <c r="A1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -4173,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA25E3-E8AD-47C5-8843-675A472521AA}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4188,28 +4184,28 @@
       <c r="E1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4366,7 +4362,7 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4382,7 +4378,7 @@
       <c r="A1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -7808,7 +7804,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
